--- a/medicine/Handicap/Narco_(film)/Narco_(film).xlsx
+++ b/medicine/Handicap/Narco_(film)/Narco_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narco est un film français réalisé par Tristan Aurouet et Gilles Lellouche, sorti en 2004.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Klopp (Guillaume Canet) est narcoleptique et peut s'endormir soudainement n'importe quand et n'importe où, tant ses fréquentes crises de sommeil sont aussi brutales qu'inattendues. Si cette maladie constitue un handicap pour sa vie professionnelle, elle lui permet de vivre, dans ses rêves, des aventures inoubliables. À peine endormi, Gustave devient Klopp, un super-héros invincible et vengeur. Gustave partage sa vie avec une femme, Paméla (Zabou Breitman), à la tête d'une boutique de manucure et rêvant de jours meilleurs, et son meilleur ami Lenny Bar (Benoît Poelvoorde), le plus grand karatéka au monde selon ses propres dires, adepte inconditionnel de Jean-Claude Van Damme. À priori destiné à une vie simple dans une petite ville calme, Gustave décide d'entamer une thérapie de groupe dans laquelle son psy découvre qu'il transforme ses rêves en bandes dessinées.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Narco
@@ -556,21 +572,21 @@
 Montage : Samuel Danési et Vincent Montrobert
 Production : Alain Attal
 Supervision de production : Jean-Philippe Blime
-Sociétés de production[1] : Les Productions du Trésor, en coproduction avec Studiocanal, TF1 Films Production et M6 Films, avec la participation de Canal+, TF1, M6, CinéCinéma, Angoa-Agicoa, de la Société des producteurs de cinéma et de télévision, du CNC et de la Région Île-de-France
-Sociétés de distribution[2] : Mars Distribution (France) ; Les Films de l'Elysée (Belgique) ; Elite Films (Suisse romande)
-Budget : 7,78 millions d' €[3]
+Sociétés de production : Les Productions du Trésor, en coproduction avec Studiocanal, TF1 Films Production et M6 Films, avec la participation de Canal+, TF1, M6, CinéCinéma, Angoa-Agicoa, de la Société des producteurs de cinéma et de télévision, du CNC et de la Région Île-de-France
+Sociétés de distribution : Mars Distribution (France) ; Les Films de l'Elysée (Belgique) ; Elite Films (Suisse romande)
+Budget : 7,78 millions d' €
 Pays de production :  France
 Langue originale : français
-Format[4] : couleur - 35 mm - 2,35:1 (Cinémascope) (Panavision) - son Dolby Digital
+Format : couleur - 35 mm - 2,35:1 (Cinémascope) (Panavision) - son Dolby Digital
 Genre : comédie
 Durée : 105 minutes
-Dates de sortie[5] :
+Dates de sortie :
 France : 12 octobre 2004 (Festival international du film de Saint-Jean-de-Luz) ; 13 novembre 2004 (Arras Film Festival) ; 1er décembre 2004 (sortie nationale)
-Suisse romande : 1er décembre 2004[6]
-Belgique : 15 décembre 2004[7]
+Suisse romande : 1er décembre 2004
+Belgique : 15 décembre 2004
 Classification :
-France : tous publics[8], déconseillé aux moins de 10 ans à la télévision.
-Belgique : tous publics (Alle Leeftijden)[7]</t>
+France : tous publics, déconseillé aux moins de 10 ans à la télévision.
+Belgique : tous publics (Alle Leeftijden)</t>
         </is>
       </c>
     </row>
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guillaume Canet : Gustave « Gus » Klopp
@@ -681,9 +699,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Guillaume Canet s'est fait conseiller techniquement par Gérard Favier, à l'époque vice-président et administrateur de l'Association française de Narcolepsie-Cataplexie et d'hypersomnies rares (ANC)[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Guillaume Canet s'est fait conseiller techniquement par Gérard Favier, à l'époque vice-président et administrateur de l'Association française de Narcolepsie-Cataplexie et d'hypersomnies rares (ANC).
 Le mariage de Gustave et Paméla a été filmé à l'Église Notre-Dame-des-Noues de Franconville</t>
         </is>
       </c>
